--- a/Data/处理后的数据.xlsx
+++ b/Data/处理后的数据.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,16 +540,6 @@
           <t>成分总和</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>纹饰_合并后</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>颜色_合并后</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -625,16 +615,6 @@
       <c r="U2" t="n">
         <v>97.61</v>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -710,16 +690,6 @@
       <c r="U3" t="n">
         <v>99.88999999999999</v>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -795,16 +765,6 @@
       <c r="U4" t="n">
         <v>100</v>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -880,16 +840,6 @@
       <c r="U5" t="n">
         <v>98.88</v>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -965,16 +915,6 @@
       <c r="U6" t="n">
         <v>96.06000000000002</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1050,16 +990,6 @@
       <c r="U7" t="n">
         <v>96.50999999999999</v>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1135,16 +1065,6 @@
       <c r="U8" t="n">
         <v>98.92000000000003</v>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1220,16 +1140,6 @@
       <c r="U9" t="n">
         <v>98.84000000000002</v>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1305,16 +1215,6 @@
       <c r="U10" t="n">
         <v>99.69999999999999</v>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1390,16 +1290,6 @@
       <c r="U11" t="n">
         <v>99.82000000000001</v>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>紫</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1475,16 +1365,6 @@
       <c r="U12" t="n">
         <v>98.24000000000001</v>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>紫</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1560,16 +1440,6 @@
       <c r="U13" t="n">
         <v>99.76999999999998</v>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1645,16 +1515,6 @@
       <c r="U14" t="n">
         <v>99.81</v>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1730,16 +1590,6 @@
       <c r="U15" t="n">
         <v>95.39</v>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1815,16 +1665,6 @@
       <c r="U16" t="n">
         <v>99.57000000000002</v>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1900,16 +1740,6 @@
       <c r="U17" t="n">
         <v>98.13999999999999</v>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1985,16 +1815,6 @@
       <c r="U18" t="n">
         <v>99</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>深绿</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2070,16 +1890,6 @@
       <c r="U19" t="n">
         <v>98.40999999999998</v>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2155,16 +1965,6 @@
       <c r="U20" t="n">
         <v>97.24999999999999</v>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2229,7 +2029,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2240,16 +2040,6 @@
       <c r="U21" t="n">
         <v>98.75999999999999</v>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2325,16 +2115,6 @@
       <c r="U22" t="n">
         <v>88.41</v>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2410,16 +2190,6 @@
       <c r="U23" t="n">
         <v>98.52</v>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2495,16 +2265,6 @@
       <c r="U24" t="n">
         <v>99.99999999999997</v>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2580,16 +2340,6 @@
       <c r="U25" t="n">
         <v>96.5</v>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2665,16 +2415,6 @@
       <c r="U26" t="n">
         <v>98.88000000000001</v>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>紫</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2750,16 +2490,6 @@
       <c r="U27" t="n">
         <v>97.06</v>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2835,16 +2565,6 @@
       <c r="U28" t="n">
         <v>99.81999999999999</v>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>紫</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2920,16 +2640,6 @@
       <c r="U29" t="n">
         <v>99.89000000000001</v>
       </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>紫</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3005,16 +2715,6 @@
       <c r="U30" t="n">
         <v>98.81000000000002</v>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3090,16 +2790,6 @@
       <c r="U31" t="n">
         <v>98.69000000000003</v>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3175,16 +2865,6 @@
       <c r="U32" t="n">
         <v>99.88</v>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3260,16 +2940,6 @@
       <c r="U33" t="n">
         <v>97.94999999999999</v>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3345,16 +3015,6 @@
       <c r="U34" t="n">
         <v>98.7</v>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3430,16 +3090,6 @@
       <c r="U35" t="n">
         <v>98.42999999999999</v>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>紫</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3515,16 +3165,6 @@
       <c r="U36" t="n">
         <v>98.65999999999998</v>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3600,16 +3240,6 @@
       <c r="U37" t="n">
         <v>99.95999999999999</v>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>深绿</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3685,16 +3315,6 @@
       <c r="U38" t="n">
         <v>97.52</v>
       </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>深绿</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3770,16 +3390,6 @@
       <c r="U39" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3855,16 +3465,6 @@
       <c r="U40" t="n">
         <v>97.62999999999998</v>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>深绿</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3940,16 +3540,6 @@
       <c r="U41" t="n">
         <v>99.97999999999999</v>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>深绿</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4025,16 +3615,6 @@
       <c r="U42" t="n">
         <v>98.57000000000001</v>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>深绿</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4110,16 +3690,6 @@
       <c r="U43" t="n">
         <v>98.75999999999999</v>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>深绿</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4184,7 +3754,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4195,16 +3765,6 @@
       <c r="U44" t="n">
         <v>98.56999999999999</v>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4280,16 +3840,6 @@
       <c r="U45" t="n">
         <v>93.70999999999999</v>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4365,16 +3915,6 @@
       <c r="U46" t="n">
         <v>98.00999999999999</v>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4450,16 +3990,6 @@
       <c r="U47" t="n">
         <v>97.89999999999999</v>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4535,16 +4065,6 @@
       <c r="U48" t="n">
         <v>94.68000000000001</v>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4620,16 +4140,6 @@
       <c r="U49" t="n">
         <v>96.67</v>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4705,16 +4215,6 @@
       <c r="U50" t="n">
         <v>99.12</v>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4790,16 +4290,6 @@
       <c r="U51" t="n">
         <v>98.33999999999999</v>
       </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4875,16 +4365,6 @@
       <c r="U52" t="n">
         <v>98.63000000000001</v>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4960,16 +4440,6 @@
       <c r="U53" t="n">
         <v>97.25999999999999</v>
       </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5034,7 +4504,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -5045,16 +4515,6 @@
       <c r="U54" t="n">
         <v>99.16999999999999</v>
       </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5130,16 +4590,6 @@
       <c r="U55" t="n">
         <v>95.49999999999999</v>
       </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5215,16 +4665,6 @@
       <c r="U56" t="n">
         <v>98.23999999999999</v>
       </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5300,16 +4740,6 @@
       <c r="U57" t="n">
         <v>90.17</v>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5385,16 +4815,6 @@
       <c r="U58" t="n">
         <v>96.94000000000001</v>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5470,16 +4890,6 @@
       <c r="U59" t="n">
         <v>95.32999999999998</v>
       </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5555,16 +4965,6 @@
       <c r="U60" t="n">
         <v>91.7</v>
       </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5640,16 +5040,6 @@
       <c r="U61" t="n">
         <v>94.07999999999998</v>
       </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5725,16 +5115,6 @@
       <c r="U62" t="n">
         <v>98.25</v>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5810,16 +5190,6 @@
       <c r="U63" t="n">
         <v>99.67</v>
       </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5895,16 +5265,6 @@
       <c r="U64" t="n">
         <v>96.92</v>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>浅蓝</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5980,16 +5340,6 @@
       <c r="U65" t="n">
         <v>96.38000000000001</v>
       </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6065,16 +5415,6 @@
       <c r="U66" t="n">
         <v>92.24000000000001</v>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6150,16 +5490,6 @@
       <c r="U67" t="n">
         <v>92.47</v>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>蓝绿</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6224,7 +5554,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>浅蓝</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -6234,16 +5564,6 @@
       </c>
       <c r="U68" t="n">
         <v>98.75999999999999</v>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
       </c>
     </row>
   </sheetData>
